--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -13,10 +13,218 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Bias</t>
+  </si>
+  <si>
+    <t>RMSE relative Error</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Run4</t>
+  </si>
+  <si>
+    <t>71-100</t>
+  </si>
+  <si>
+    <t>1-20</t>
+  </si>
+  <si>
+    <t>185-215</t>
+  </si>
+  <si>
+    <t>310-340</t>
+  </si>
+  <si>
+    <t>80-110</t>
+  </si>
+  <si>
+    <t>90-120</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>CLDTOT_ISCCP</t>
+  </si>
+  <si>
+    <t>FLDS_ISCCP</t>
+  </si>
+  <si>
+    <t>FLNS_ISCCP</t>
+  </si>
+  <si>
+    <t>FLUTC_CERES-EBAF</t>
+  </si>
+  <si>
+    <t>FLUT_CERES-EBAF</t>
+  </si>
+  <si>
+    <t>FSDS_ISCCP</t>
+  </si>
+  <si>
+    <t>FSNS_ISCCP</t>
+  </si>
+  <si>
+    <t>FSNTOAC_CERES</t>
+  </si>
+  <si>
+    <t>FSNTOA_CERES</t>
+  </si>
+  <si>
+    <t>LHFLX_JRA25</t>
+  </si>
+  <si>
+    <t>LWCF_CERES-EBAF</t>
+  </si>
+  <si>
+    <t>PRECT_GPCP</t>
+  </si>
+  <si>
+    <t>PREH2O_ERA40</t>
+  </si>
+  <si>
+    <t>PSL_JRA25</t>
+  </si>
+  <si>
+    <t>RESSURF</t>
+  </si>
+  <si>
+    <t>RESTOA_CERES-EBAF</t>
+  </si>
+  <si>
+    <t>RESTOM</t>
+  </si>
+  <si>
+    <t>SHFLX_JRA25</t>
+  </si>
+  <si>
+    <t>SST_HADISST_PI</t>
+  </si>
+  <si>
+    <t>SWCF_CERES-EBAF</t>
+  </si>
+  <si>
+    <t>TREFHT_JRA25</t>
+  </si>
+  <si>
+    <t>TS_LAND_NCEP</t>
+  </si>
+  <si>
+    <t>TS_NCEP</t>
+  </si>
+  <si>
+    <t>U_200_JRA25</t>
+  </si>
+  <si>
+    <t>Z3_500_JRA25</t>
+  </si>
+  <si>
+    <t>Total cloud cover</t>
+  </si>
+  <si>
+    <t>LW down SRF</t>
+  </si>
+  <si>
+    <t>LW net SRF</t>
+  </si>
+  <si>
+    <t>LW up Top Clearsky</t>
+  </si>
+  <si>
+    <t>LW up Top</t>
+  </si>
+  <si>
+    <t>SW down SRF</t>
+  </si>
+  <si>
+    <t>SW net SRF</t>
+  </si>
+  <si>
+    <t>SW net TOA clearsky</t>
+  </si>
+  <si>
+    <t>SW net TOA</t>
+  </si>
+  <si>
+    <t>Lat Heat Flux</t>
+  </si>
+  <si>
+    <t>LW Cloud Forc</t>
+  </si>
+  <si>
+    <t>Precipitation</t>
+  </si>
+  <si>
+    <t>Precipitable water</t>
+  </si>
+  <si>
+    <t>SeaLev pressure</t>
+  </si>
+  <si>
+    <t>SRF net flux</t>
+  </si>
+  <si>
+    <t>TOA  net flux</t>
+  </si>
+  <si>
+    <t>TOmodel net flux</t>
+  </si>
+  <si>
+    <t>Sens Heat Flux</t>
+  </si>
+  <si>
+    <t>SST preindustrial</t>
+  </si>
+  <si>
+    <t>SW Cloud Forc</t>
+  </si>
+  <si>
+    <t>2m Temp</t>
+  </si>
+  <si>
+    <t>2m Temp land</t>
+  </si>
+  <si>
+    <t>Zonal Wind JRA25</t>
+  </si>
+  <si>
+    <t>Geop Height  JRA25</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +240,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +248,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +566,1184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>-3.179</v>
+      </c>
+      <c r="D5">
+        <v>1.786</v>
+      </c>
+      <c r="E5">
+        <v>1.744</v>
+      </c>
+      <c r="F5">
+        <v>1.435</v>
+      </c>
+      <c r="G5">
+        <v>2.157</v>
+      </c>
+      <c r="H5">
+        <v>3.947</v>
+      </c>
+      <c r="I5">
+        <v>-0.0896446374015115</v>
+      </c>
+      <c r="J5">
+        <v>-0.04478211931178649</v>
+      </c>
+      <c r="K5">
+        <v>0.04454092297797076</v>
+      </c>
+      <c r="L5">
+        <v>0.05145521788068812</v>
+      </c>
+      <c r="M5">
+        <v>0.0346518732915259</v>
+      </c>
+      <c r="N5">
+        <v>0.003778742563112945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>-5.066</v>
+      </c>
+      <c r="D6">
+        <v>-1.799</v>
+      </c>
+      <c r="E6">
+        <v>10.514</v>
+      </c>
+      <c r="F6">
+        <v>11.499</v>
+      </c>
+      <c r="G6">
+        <v>5.162</v>
+      </c>
+      <c r="H6">
+        <v>4.507</v>
+      </c>
+      <c r="I6">
+        <v>-0.1001930381717418</v>
+      </c>
+      <c r="J6">
+        <v>-0.0440874276106856</v>
+      </c>
+      <c r="K6">
+        <v>0.05180895448035352</v>
+      </c>
+      <c r="L6">
+        <v>0.09994395665981695</v>
+      </c>
+      <c r="M6">
+        <v>0.04116071984556932</v>
+      </c>
+      <c r="N6">
+        <v>-0.04863316520331282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>6.394</v>
+      </c>
+      <c r="D7">
+        <v>9.699</v>
+      </c>
+      <c r="E7">
+        <v>6.824</v>
+      </c>
+      <c r="F7">
+        <v>6.847</v>
+      </c>
+      <c r="G7">
+        <v>7.167</v>
+      </c>
+      <c r="H7">
+        <v>6.925</v>
+      </c>
+      <c r="I7">
+        <v>-0.1421095392850315</v>
+      </c>
+      <c r="J7">
+        <v>0.07195086981456694</v>
+      </c>
+      <c r="K7">
+        <v>0.0106576180462627</v>
+      </c>
+      <c r="L7">
+        <v>0.01610590709233411</v>
+      </c>
+      <c r="M7">
+        <v>0.04062320779965588</v>
+      </c>
+      <c r="N7">
+        <v>0.002771936532211763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>-4.268</v>
+      </c>
+      <c r="D8">
+        <v>-0.986</v>
+      </c>
+      <c r="E8">
+        <v>1.039</v>
+      </c>
+      <c r="F8">
+        <v>1.426</v>
+      </c>
+      <c r="G8">
+        <v>-0.786</v>
+      </c>
+      <c r="H8">
+        <v>-1.182</v>
+      </c>
+      <c r="I8">
+        <v>0.1820790400417373</v>
+      </c>
+      <c r="J8">
+        <v>-0.06521455588887451</v>
+      </c>
+      <c r="K8">
+        <v>-0.08790922133820274</v>
+      </c>
+      <c r="L8">
+        <v>-0.07304030259553927</v>
+      </c>
+      <c r="M8">
+        <v>0.1092995956697534</v>
+      </c>
+      <c r="N8">
+        <v>-0.06521455588887451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>-1.426</v>
+      </c>
+      <c r="D9">
+        <v>1.704</v>
+      </c>
+      <c r="E9">
+        <v>2.398</v>
+      </c>
+      <c r="F9">
+        <v>2.928</v>
+      </c>
+      <c r="G9">
+        <v>0.66</v>
+      </c>
+      <c r="H9">
+        <v>-0.832</v>
+      </c>
+      <c r="I9">
+        <v>-0.01546342397548821</v>
+      </c>
+      <c r="J9">
+        <v>-0.1139888931443891</v>
+      </c>
+      <c r="K9">
+        <v>0.03236307927996937</v>
+      </c>
+      <c r="L9">
+        <v>0.07243393335886633</v>
+      </c>
+      <c r="M9">
+        <v>0.07702987361164305</v>
+      </c>
+      <c r="N9">
+        <v>-0.05237456913060128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>-1.589</v>
+      </c>
+      <c r="D10">
+        <v>3.2</v>
+      </c>
+      <c r="E10">
+        <v>1.068</v>
+      </c>
+      <c r="F10">
+        <v>1.228</v>
+      </c>
+      <c r="G10">
+        <v>1.216</v>
+      </c>
+      <c r="H10">
+        <v>-1.721</v>
+      </c>
+      <c r="I10">
+        <v>-0.1267743514439549</v>
+      </c>
+      <c r="J10">
+        <v>-0.0152390275738293</v>
+      </c>
+      <c r="K10">
+        <v>0.03866862457170823</v>
+      </c>
+      <c r="L10">
+        <v>0.04956762930331218</v>
+      </c>
+      <c r="M10">
+        <v>0.04734867025615914</v>
+      </c>
+      <c r="N10">
+        <v>0.00642845488660464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <v>-2.214</v>
+      </c>
+      <c r="D11">
+        <v>2.63</v>
+      </c>
+      <c r="E11">
+        <v>1.07</v>
+      </c>
+      <c r="F11">
+        <v>1.365</v>
+      </c>
+      <c r="G11">
+        <v>-0.017</v>
+      </c>
+      <c r="H11">
+        <v>-2.145</v>
+      </c>
+      <c r="I11">
+        <v>-0.0398338159385621</v>
+      </c>
+      <c r="J11">
+        <v>-0.04580133450837204</v>
+      </c>
+      <c r="K11">
+        <v>0.02633765579755772</v>
+      </c>
+      <c r="L11">
+        <v>0.03691300516177783</v>
+      </c>
+      <c r="M11">
+        <v>0.03525116454740038</v>
+      </c>
+      <c r="N11">
+        <v>-0.01286667505980098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>-6.703</v>
+      </c>
+      <c r="D12">
+        <v>-5.051</v>
+      </c>
+      <c r="E12">
+        <v>-4.373</v>
+      </c>
+      <c r="F12">
+        <v>-4.183</v>
+      </c>
+      <c r="G12">
+        <v>-5.747</v>
+      </c>
+      <c r="H12">
+        <v>-4.988</v>
+      </c>
+      <c r="I12">
+        <v>0.06804767966670515</v>
+      </c>
+      <c r="J12">
+        <v>0.008679550977895995</v>
+      </c>
+      <c r="K12">
+        <v>-0.07551209350769585</v>
+      </c>
+      <c r="L12">
+        <v>-0.09096169424835084</v>
+      </c>
+      <c r="M12">
+        <v>0.070825135979632</v>
+      </c>
+      <c r="N12">
+        <v>0.01892142113181355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>-5.015</v>
+      </c>
+      <c r="D13">
+        <v>-0.338</v>
+      </c>
+      <c r="E13">
+        <v>-0.167</v>
+      </c>
+      <c r="F13">
+        <v>0.223</v>
+      </c>
+      <c r="G13">
+        <v>-1.724</v>
+      </c>
+      <c r="H13">
+        <v>-3.937</v>
+      </c>
+      <c r="I13">
+        <v>0.02065019074473383</v>
+      </c>
+      <c r="J13">
+        <v>-0.1047437385967822</v>
+      </c>
+      <c r="K13">
+        <v>0.003151434732128069</v>
+      </c>
+      <c r="L13">
+        <v>0.005556477027699467</v>
+      </c>
+      <c r="M13">
+        <v>0.02123071819538897</v>
+      </c>
+      <c r="N13">
+        <v>0.05415491789683202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>-0.031</v>
+      </c>
+      <c r="D14">
+        <v>-2.503</v>
+      </c>
+      <c r="E14">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.434</v>
+      </c>
+      <c r="G14">
+        <v>-1.695</v>
+      </c>
+      <c r="H14">
+        <v>-2.692</v>
+      </c>
+      <c r="I14">
+        <v>0.1134328035696921</v>
+      </c>
+      <c r="J14">
+        <v>-0.05498233520965465</v>
+      </c>
+      <c r="K14">
+        <v>-0.03106194020981673</v>
+      </c>
+      <c r="L14">
+        <v>-0.02010652894972832</v>
+      </c>
+      <c r="M14">
+        <v>0.0104260077573819</v>
+      </c>
+      <c r="N14">
+        <v>-0.0177080069578746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>-2.841</v>
+      </c>
+      <c r="D15">
+        <v>-2.689</v>
+      </c>
+      <c r="E15">
+        <v>-1.357</v>
+      </c>
+      <c r="F15">
+        <v>-1.501</v>
+      </c>
+      <c r="G15">
+        <v>-1.446</v>
+      </c>
+      <c r="H15">
+        <v>-0.349</v>
+      </c>
+      <c r="I15">
+        <v>0.04427480916030536</v>
+      </c>
+      <c r="J15">
+        <v>-0.03596268023748936</v>
+      </c>
+      <c r="K15">
+        <v>-0.005937234944868406</v>
+      </c>
+      <c r="L15">
+        <v>0.01441899915182373</v>
+      </c>
+      <c r="M15">
+        <v>0.02086513994910945</v>
+      </c>
+      <c r="N15">
+        <v>-0.03765903307888033</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>0.329</v>
+      </c>
+      <c r="D16">
+        <v>0.246</v>
+      </c>
+      <c r="E16">
+        <v>0.336</v>
+      </c>
+      <c r="F16">
+        <v>0.352</v>
+      </c>
+      <c r="G16">
+        <v>0.276</v>
+      </c>
+      <c r="H16">
+        <v>0.244</v>
+      </c>
+      <c r="I16">
+        <v>0.1254237288135593</v>
+      </c>
+      <c r="J16">
+        <v>-0.137046004842615</v>
+      </c>
+      <c r="K16">
+        <v>0.01016949152542368</v>
+      </c>
+      <c r="L16">
+        <v>0.0353510895883777</v>
+      </c>
+      <c r="M16">
+        <v>0.02179176755447939</v>
+      </c>
+      <c r="N16">
+        <v>-0.05569007263922518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17">
+        <v>-0.975</v>
+      </c>
+      <c r="D17">
+        <v>-0.511</v>
+      </c>
+      <c r="E17">
+        <v>3.143</v>
+      </c>
+      <c r="F17">
+        <v>3.437</v>
+      </c>
+      <c r="G17">
+        <v>1.922</v>
+      </c>
+      <c r="H17">
+        <v>0.785</v>
+      </c>
+      <c r="I17">
+        <v>-0.2989006204419288</v>
+      </c>
+      <c r="J17">
+        <v>-0.3730271035158376</v>
+      </c>
+      <c r="K17">
+        <v>0.3561554370305867</v>
+      </c>
+      <c r="L17">
+        <v>0.4466093392837706</v>
+      </c>
+      <c r="M17">
+        <v>0.09426363339501476</v>
+      </c>
+      <c r="N17">
+        <v>-0.2251006857516054</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>0.002</v>
+      </c>
+      <c r="D18">
+        <v>0.004</v>
+      </c>
+      <c r="E18">
+        <v>0.491</v>
+      </c>
+      <c r="F18">
+        <v>0.513</v>
+      </c>
+      <c r="G18">
+        <v>0.448</v>
+      </c>
+      <c r="H18">
+        <v>0.335</v>
+      </c>
+      <c r="I18">
+        <v>-0.2192502928543538</v>
+      </c>
+      <c r="J18">
+        <v>-0.1144084342053885</v>
+      </c>
+      <c r="K18">
+        <v>0.06891839125341659</v>
+      </c>
+      <c r="L18">
+        <v>0.1356891839125342</v>
+      </c>
+      <c r="M18">
+        <v>0.1362748926200702</v>
+      </c>
+      <c r="N18">
+        <v>-0.007223740726278782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>-0.489</v>
+      </c>
+      <c r="D19">
+        <v>0.974</v>
+      </c>
+      <c r="E19">
+        <v>0.474</v>
+      </c>
+      <c r="F19">
+        <v>0.337</v>
+      </c>
+      <c r="G19">
+        <v>0.643</v>
+      </c>
+      <c r="H19">
+        <v>-0.075</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>0.537</v>
+      </c>
+      <c r="D20">
+        <v>2.083</v>
+      </c>
+      <c r="E20">
+        <v>1.561</v>
+      </c>
+      <c r="F20">
+        <v>1.42</v>
+      </c>
+      <c r="G20">
+        <v>1.741</v>
+      </c>
+      <c r="H20">
+        <v>1.021</v>
+      </c>
+      <c r="I20">
+        <v>-0.01476405370772748</v>
+      </c>
+      <c r="J20">
+        <v>-0.06869463479859604</v>
+      </c>
+      <c r="K20">
+        <v>0.004067078945902102</v>
+      </c>
+      <c r="L20">
+        <v>-0.004178505766338115</v>
+      </c>
+      <c r="M20">
+        <v>-0.01142124909465719</v>
+      </c>
+      <c r="N20">
+        <v>0.09499136442141613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21">
+        <v>-0.489</v>
+      </c>
+      <c r="D21">
+        <v>0.987</v>
+      </c>
+      <c r="E21">
+        <v>0.468</v>
+      </c>
+      <c r="F21">
+        <v>0.327</v>
+      </c>
+      <c r="G21">
+        <v>0.647</v>
+      </c>
+      <c r="H21">
+        <v>-0.075</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22">
+        <v>1.074</v>
+      </c>
+      <c r="D22">
+        <v>3.621</v>
+      </c>
+      <c r="E22">
+        <v>2.942</v>
+      </c>
+      <c r="F22">
+        <v>2.907</v>
+      </c>
+      <c r="G22">
+        <v>3.028</v>
+      </c>
+      <c r="H22">
+        <v>2.857</v>
+      </c>
+      <c r="I22">
+        <v>0.02822422008188944</v>
+      </c>
+      <c r="J22">
+        <v>0.04264960876597351</v>
+      </c>
+      <c r="K22">
+        <v>-0.0338486645587143</v>
+      </c>
+      <c r="L22">
+        <v>-0.02624255052528822</v>
+      </c>
+      <c r="M22">
+        <v>0.009864634483964447</v>
+      </c>
+      <c r="N22">
+        <v>-0.02064724824782534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23">
+        <v>-0.108</v>
+      </c>
+      <c r="D23">
+        <v>0.782</v>
+      </c>
+      <c r="E23">
+        <v>2.217</v>
+      </c>
+      <c r="F23">
+        <v>2.385</v>
+      </c>
+      <c r="G23">
+        <v>1.756</v>
+      </c>
+      <c r="H23">
+        <v>1.358</v>
+      </c>
+      <c r="I23">
+        <v>-0.4333363060733078</v>
+      </c>
+      <c r="J23">
+        <v>-0.3455810220280031</v>
+      </c>
+      <c r="K23">
+        <v>0.3152590742887722</v>
+      </c>
+      <c r="L23">
+        <v>0.3944528672077054</v>
+      </c>
+      <c r="M23">
+        <v>0.1424239721751538</v>
+      </c>
+      <c r="N23">
+        <v>-0.07321858557032007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <v>-1.252</v>
+      </c>
+      <c r="D24">
+        <v>1.774</v>
+      </c>
+      <c r="E24">
+        <v>1.266</v>
+      </c>
+      <c r="F24">
+        <v>1.466</v>
+      </c>
+      <c r="G24">
+        <v>1.083</v>
+      </c>
+      <c r="H24">
+        <v>-1.888</v>
+      </c>
+      <c r="I24">
+        <v>0.02295471810285042</v>
+      </c>
+      <c r="J24">
+        <v>-0.1227003996432936</v>
+      </c>
+      <c r="K24">
+        <v>0.0351421871387522</v>
+      </c>
+      <c r="L24">
+        <v>0.04663606037586301</v>
+      </c>
+      <c r="M24">
+        <v>0.02979159097664909</v>
+      </c>
+      <c r="N24">
+        <v>-0.0118241569508206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>-1.098</v>
+      </c>
+      <c r="D25">
+        <v>-0.263</v>
+      </c>
+      <c r="E25">
+        <v>1.434</v>
+      </c>
+      <c r="F25">
+        <v>1.615</v>
+      </c>
+      <c r="G25">
+        <v>0.431</v>
+      </c>
+      <c r="H25">
+        <v>0.344</v>
+      </c>
+      <c r="I25">
+        <v>-0.02518414591371461</v>
+      </c>
+      <c r="J25">
+        <v>-0.1771308312872676</v>
+      </c>
+      <c r="K25">
+        <v>0.06825675201683606</v>
+      </c>
+      <c r="L25">
+        <v>0.1086636267976148</v>
+      </c>
+      <c r="M25">
+        <v>0.1217116801122413</v>
+      </c>
+      <c r="N25">
+        <v>-0.09631708172571041</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26">
+        <v>-0.524</v>
+      </c>
+      <c r="D26">
+        <v>1.237</v>
+      </c>
+      <c r="E26">
+        <v>3.765</v>
+      </c>
+      <c r="F26">
+        <v>3.945</v>
+      </c>
+      <c r="G26">
+        <v>2.181</v>
+      </c>
+      <c r="H26">
+        <v>2.153</v>
+      </c>
+      <c r="I26">
+        <v>-0.3169025674786043</v>
+      </c>
+      <c r="J26">
+        <v>-0.2267939433838051</v>
+      </c>
+      <c r="K26">
+        <v>0.2511520737327189</v>
+      </c>
+      <c r="L26">
+        <v>0.2908986175115209</v>
+      </c>
+      <c r="M26">
+        <v>0.02797893350888742</v>
+      </c>
+      <c r="N26">
+        <v>-0.02633311389071753</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27">
+        <v>-0.346</v>
+      </c>
+      <c r="D27">
+        <v>0.876</v>
+      </c>
+      <c r="E27">
+        <v>2.579</v>
+      </c>
+      <c r="F27">
+        <v>2.767</v>
+      </c>
+      <c r="G27">
+        <v>1.564</v>
+      </c>
+      <c r="H27">
+        <v>1.518</v>
+      </c>
+      <c r="I27">
+        <v>-0.2929891046897204</v>
+      </c>
+      <c r="J27">
+        <v>-0.1757460918995736</v>
+      </c>
+      <c r="K27">
+        <v>0.2015632401705355</v>
+      </c>
+      <c r="L27">
+        <v>0.2537896731406918</v>
+      </c>
+      <c r="M27">
+        <v>0.06726669824727635</v>
+      </c>
+      <c r="N27">
+        <v>-0.05388441496920882</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28">
+        <v>1.006</v>
+      </c>
+      <c r="D28">
+        <v>1.825</v>
+      </c>
+      <c r="E28">
+        <v>3.209</v>
+      </c>
+      <c r="F28">
+        <v>3.218</v>
+      </c>
+      <c r="G28">
+        <v>3.34</v>
+      </c>
+      <c r="H28">
+        <v>2.304</v>
+      </c>
+      <c r="I28">
+        <v>-0.3228353728930963</v>
+      </c>
+      <c r="J28">
+        <v>-0.2097898868621565</v>
+      </c>
+      <c r="K28">
+        <v>0.200831216809051</v>
+      </c>
+      <c r="L28">
+        <v>0.2047102285846225</v>
+      </c>
+      <c r="M28">
+        <v>0.2011082890787348</v>
+      </c>
+      <c r="N28">
+        <v>-0.0740244747171553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29">
+        <v>-0.254</v>
+      </c>
+      <c r="D29">
+        <v>-0.09</v>
+      </c>
+      <c r="E29">
+        <v>0.278</v>
+      </c>
+      <c r="F29">
+        <v>0.317</v>
+      </c>
+      <c r="G29">
+        <v>0.113</v>
+      </c>
+      <c r="H29">
+        <v>-0.014</v>
+      </c>
+      <c r="I29">
+        <v>-0.07692307692307687</v>
+      </c>
+      <c r="J29">
+        <v>-0.3670329670329671</v>
+      </c>
+      <c r="K29">
+        <v>0.289010989010989</v>
+      </c>
+      <c r="L29">
+        <v>0.3945054945054944</v>
+      </c>
+      <c r="M29">
+        <v>0.1043956043956044</v>
+      </c>
+      <c r="N29">
+        <v>-0.343956043956044</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="K2:M2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -28,16 +28,16 @@
     <t>RMSE relative Error</t>
   </si>
   <si>
-    <t>Run1</t>
-  </si>
-  <si>
-    <t>Run2</t>
-  </si>
-  <si>
-    <t>Run3</t>
-  </si>
-  <si>
-    <t>Run4</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>71-100</t>

--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>Run</t>
   </si>
@@ -64,10 +64,13 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Obs</t>
-  </si>
-  <si>
-    <t>CLDTOT_CLOUDSAT</t>
+    <t>RESTOM</t>
+  </si>
+  <si>
+    <t>RESSURF</t>
+  </si>
+  <si>
+    <t>RESTOA_CERES-EBAF</t>
   </si>
   <si>
     <t>CLDTOT_ISCCP</t>
@@ -76,19 +79,73 @@
     <t>FLDS_ISCCP</t>
   </si>
   <si>
-    <t>PREH2O_ERAI</t>
-  </si>
-  <si>
-    <t>RESTOM</t>
+    <t>FLNS_ISCCP</t>
+  </si>
+  <si>
+    <t>FLUT_CERES-EBAF</t>
+  </si>
+  <si>
+    <t>FLUTC_CERES-EBAF</t>
+  </si>
+  <si>
+    <t>FSDS_ISCCP</t>
+  </si>
+  <si>
+    <t>FSNS_ISCCP</t>
+  </si>
+  <si>
+    <t>FSNTOA_CERES</t>
+  </si>
+  <si>
+    <t>FSNTOAC_CERES</t>
+  </si>
+  <si>
+    <t>LHFLX_JRA25</t>
+  </si>
+  <si>
+    <t>LWCF_CERES-EBAF</t>
+  </si>
+  <si>
+    <t>PRECT_GPCP</t>
+  </si>
+  <si>
+    <t>PREH2O_ERA40</t>
+  </si>
+  <si>
+    <t>PSL_JRA25</t>
+  </si>
+  <si>
+    <t>SHFLX_JRA25</t>
   </si>
   <si>
     <t>SWCF_CERES-EBAF</t>
   </si>
   <si>
+    <t>SST_HADISST_PI</t>
+  </si>
+  <si>
+    <t>TREFHT_JRA25</t>
+  </si>
+  <si>
+    <t>TS_NCEP</t>
+  </si>
+  <si>
+    <t>TS_LAND_NCEP</t>
+  </si>
+  <si>
     <t>U_200_JRA25</t>
   </si>
   <si>
-    <t>Z3_500_NCEP</t>
+    <t>Z3_500_JRA25</t>
+  </si>
+  <si>
+    <t>TOmodel net flux</t>
+  </si>
+  <si>
+    <t>SRF net flux</t>
+  </si>
+  <si>
+    <t>TOA  net flux</t>
   </si>
   <si>
     <t>Total cloud cover</t>
@@ -97,13 +154,61 @@
     <t>LW down SRF</t>
   </si>
   <si>
-    <t>TOmodel net flux</t>
+    <t>LW net SRF</t>
+  </si>
+  <si>
+    <t>LW up Top</t>
+  </si>
+  <si>
+    <t>LW up Top Clearsky</t>
+  </si>
+  <si>
+    <t>SW down SRF</t>
+  </si>
+  <si>
+    <t>SW net SRF</t>
+  </si>
+  <si>
+    <t>SW net TOA</t>
+  </si>
+  <si>
+    <t>SW net TOA clearsky</t>
+  </si>
+  <si>
+    <t>Lat Heat Flux</t>
+  </si>
+  <si>
+    <t>LW Cloud Forc</t>
+  </si>
+  <si>
+    <t>Precipitation</t>
+  </si>
+  <si>
+    <t>Precipitable water</t>
+  </si>
+  <si>
+    <t>SeaLev pressure</t>
+  </si>
+  <si>
+    <t>Sens Heat Flux</t>
   </si>
   <si>
     <t>SW Cloud Forc</t>
   </si>
   <si>
+    <t>SST preindustrial</t>
+  </si>
+  <si>
+    <t>2m Temp</t>
+  </si>
+  <si>
+    <t>2m Temp land</t>
+  </si>
+  <si>
     <t>Zonal Wind JRA25</t>
+  </si>
+  <si>
+    <t>Geop Height  JRA25</t>
   </si>
 </sst>
 </file>
@@ -461,474 +566,1183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:14">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>-0.489</v>
+      </c>
+      <c r="D5">
+        <v>0.987</v>
+      </c>
+      <c r="E5">
+        <v>0.468</v>
+      </c>
+      <c r="F5">
+        <v>0.327</v>
+      </c>
+      <c r="G5">
+        <v>0.647</v>
+      </c>
+      <c r="H5">
+        <v>-0.075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1">
-        <v>66.824</v>
-      </c>
-      <c r="D5">
-        <v>-3.203</v>
-      </c>
-      <c r="E5">
-        <v>1.762</v>
-      </c>
-      <c r="F5">
-        <v>1.72</v>
-      </c>
-      <c r="G5">
-        <v>1.411</v>
-      </c>
-      <c r="H5">
-        <v>2.133</v>
-      </c>
-      <c r="I5">
-        <v>3.923</v>
-      </c>
-      <c r="J5">
-        <v>-0.07917231807715353</v>
-      </c>
-      <c r="K5">
-        <v>-0.01756931520676272</v>
-      </c>
-      <c r="L5">
-        <v>0.03012333217676561</v>
-      </c>
-      <c r="M5">
-        <v>0.03636879790556106</v>
-      </c>
-      <c r="N5">
-        <v>0.03088035832571059</v>
-      </c>
-      <c r="O5">
-        <v>-0.0006308551241206762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>-0.489</v>
+      </c>
+      <c r="D6">
+        <v>0.974</v>
+      </c>
+      <c r="E6">
+        <v>0.474</v>
+      </c>
+      <c r="F6">
+        <v>0.337</v>
+      </c>
+      <c r="G6">
+        <v>0.643</v>
+      </c>
+      <c r="H6">
+        <v>-0.075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>0.537</v>
+      </c>
+      <c r="D7">
+        <v>2.083</v>
+      </c>
+      <c r="E7">
+        <v>1.561</v>
+      </c>
+      <c r="F7">
+        <v>1.42</v>
+      </c>
+      <c r="G7">
+        <v>1.741</v>
+      </c>
+      <c r="H7">
+        <v>1.021</v>
+      </c>
+      <c r="I7">
+        <v>-0.01476405370772748</v>
+      </c>
+      <c r="J7">
+        <v>-0.06869463479859604</v>
+      </c>
+      <c r="K7">
+        <v>0.004067078945902102</v>
+      </c>
+      <c r="L7">
+        <v>-0.004178505766338115</v>
+      </c>
+      <c r="M7">
+        <v>-0.01142124909465719</v>
+      </c>
+      <c r="N7">
+        <v>0.09499136442141613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>-3.179</v>
+      </c>
+      <c r="D8">
+        <v>1.786</v>
+      </c>
+      <c r="E8">
+        <v>1.744</v>
+      </c>
+      <c r="F8">
+        <v>1.435</v>
+      </c>
+      <c r="G8">
+        <v>2.157</v>
+      </c>
+      <c r="H8">
+        <v>3.947</v>
+      </c>
+      <c r="I8">
+        <v>-0.0896446374015115</v>
+      </c>
+      <c r="J8">
+        <v>-0.04478211931178649</v>
+      </c>
+      <c r="K8">
+        <v>0.04454092297797076</v>
+      </c>
+      <c r="L8">
+        <v>0.05145521788068812</v>
+      </c>
+      <c r="M8">
+        <v>0.0346518732915259</v>
+      </c>
+      <c r="N8">
+        <v>0.003778742563112945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>-5.066</v>
+      </c>
+      <c r="D9">
+        <v>-1.799</v>
+      </c>
+      <c r="E9">
+        <v>10.514</v>
+      </c>
+      <c r="F9">
+        <v>11.499</v>
+      </c>
+      <c r="G9">
+        <v>5.162</v>
+      </c>
+      <c r="H9">
+        <v>4.507</v>
+      </c>
+      <c r="I9">
+        <v>-0.1001930381717418</v>
+      </c>
+      <c r="J9">
+        <v>-0.0440874276106856</v>
+      </c>
+      <c r="K9">
+        <v>0.05180895448035352</v>
+      </c>
+      <c r="L9">
+        <v>0.09994395665981695</v>
+      </c>
+      <c r="M9">
+        <v>0.04116071984556932</v>
+      </c>
+      <c r="N9">
+        <v>-0.04863316520331282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>6.394</v>
+      </c>
+      <c r="D10">
+        <v>9.699</v>
+      </c>
+      <c r="E10">
+        <v>6.824</v>
+      </c>
+      <c r="F10">
+        <v>6.847</v>
+      </c>
+      <c r="G10">
+        <v>7.167</v>
+      </c>
+      <c r="H10">
+        <v>6.925</v>
+      </c>
+      <c r="I10">
+        <v>-0.1421095392850315</v>
+      </c>
+      <c r="J10">
+        <v>0.07195086981456694</v>
+      </c>
+      <c r="K10">
+        <v>0.0106576180462627</v>
+      </c>
+      <c r="L10">
+        <v>0.01610590709233411</v>
+      </c>
+      <c r="M10">
+        <v>0.04062320779965588</v>
+      </c>
+      <c r="N10">
+        <v>0.002771936532211763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <v>-1.426</v>
+      </c>
+      <c r="D11">
+        <v>1.704</v>
+      </c>
+      <c r="E11">
+        <v>2.398</v>
+      </c>
+      <c r="F11">
+        <v>2.928</v>
+      </c>
+      <c r="G11">
+        <v>0.66</v>
+      </c>
+      <c r="H11">
+        <v>-0.832</v>
+      </c>
+      <c r="I11">
+        <v>-0.01546342397548821</v>
+      </c>
+      <c r="J11">
+        <v>-0.1139888931443891</v>
+      </c>
+      <c r="K11">
+        <v>0.03236307927996937</v>
+      </c>
+      <c r="L11">
+        <v>0.07243393335886633</v>
+      </c>
+      <c r="M11">
+        <v>0.07702987361164305</v>
+      </c>
+      <c r="N11">
+        <v>-0.05237456913060128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>-4.268</v>
+      </c>
+      <c r="D12">
+        <v>-0.986</v>
+      </c>
+      <c r="E12">
+        <v>1.039</v>
+      </c>
+      <c r="F12">
+        <v>1.426</v>
+      </c>
+      <c r="G12">
+        <v>-0.786</v>
+      </c>
+      <c r="H12">
+        <v>-1.182</v>
+      </c>
+      <c r="I12">
+        <v>0.1820790400417373</v>
+      </c>
+      <c r="J12">
+        <v>-0.06521455588887451</v>
+      </c>
+      <c r="K12">
+        <v>-0.08790922133820274</v>
+      </c>
+      <c r="L12">
+        <v>-0.07304030259553927</v>
+      </c>
+      <c r="M12">
+        <v>0.1092995956697534</v>
+      </c>
+      <c r="N12">
+        <v>-0.06521455588887451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>-1.589</v>
+      </c>
+      <c r="D13">
+        <v>3.2</v>
+      </c>
+      <c r="E13">
+        <v>1.068</v>
+      </c>
+      <c r="F13">
+        <v>1.228</v>
+      </c>
+      <c r="G13">
+        <v>1.216</v>
+      </c>
+      <c r="H13">
+        <v>-1.721</v>
+      </c>
+      <c r="I13">
+        <v>-0.1267743514439549</v>
+      </c>
+      <c r="J13">
+        <v>-0.0152390275738293</v>
+      </c>
+      <c r="K13">
+        <v>0.03866862457170823</v>
+      </c>
+      <c r="L13">
+        <v>0.04956762930331218</v>
+      </c>
+      <c r="M13">
+        <v>0.04734867025615914</v>
+      </c>
+      <c r="N13">
+        <v>0.00642845488660464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1">
-        <v>66.8</v>
-      </c>
-      <c r="D6">
-        <v>-3.179</v>
-      </c>
-      <c r="E6">
-        <v>1.786</v>
-      </c>
-      <c r="F6">
-        <v>1.744</v>
-      </c>
-      <c r="G6">
-        <v>1.435</v>
-      </c>
-      <c r="H6">
-        <v>2.157</v>
-      </c>
-      <c r="I6">
-        <v>3.947</v>
-      </c>
-      <c r="J6">
-        <v>-0.0896446374015115</v>
-      </c>
-      <c r="K6">
-        <v>-0.04478211931178649</v>
-      </c>
-      <c r="L6">
-        <v>0.04454092297797076</v>
-      </c>
-      <c r="M6">
-        <v>0.05145521788068812</v>
-      </c>
-      <c r="N6">
-        <v>0.0346518732915259</v>
-      </c>
-      <c r="O6">
-        <v>0.003778742563112945</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>-2.214</v>
+      </c>
+      <c r="D14">
+        <v>2.63</v>
+      </c>
+      <c r="E14">
+        <v>1.07</v>
+      </c>
+      <c r="F14">
+        <v>1.365</v>
+      </c>
+      <c r="G14">
+        <v>-0.017</v>
+      </c>
+      <c r="H14">
+        <v>-2.145</v>
+      </c>
+      <c r="I14">
+        <v>-0.0398338159385621</v>
+      </c>
+      <c r="J14">
+        <v>-0.04580133450837204</v>
+      </c>
+      <c r="K14">
+        <v>0.02633765579755772</v>
+      </c>
+      <c r="L14">
+        <v>0.03691300516177783</v>
+      </c>
+      <c r="M14">
+        <v>0.03525116454740038</v>
+      </c>
+      <c r="N14">
+        <v>-0.01286667505980098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1">
-        <v>343.347</v>
-      </c>
-      <c r="D7">
-        <v>-5.066</v>
-      </c>
-      <c r="E7">
-        <v>-1.799</v>
-      </c>
-      <c r="F7">
-        <v>10.514</v>
-      </c>
-      <c r="G7">
-        <v>11.499</v>
-      </c>
-      <c r="H7">
-        <v>5.162</v>
-      </c>
-      <c r="I7">
-        <v>4.507</v>
-      </c>
-      <c r="J7">
-        <v>-0.1001930381717418</v>
-      </c>
-      <c r="K7">
-        <v>-0.0440874276106856</v>
-      </c>
-      <c r="L7">
-        <v>0.05180895448035352</v>
-      </c>
-      <c r="M7">
-        <v>0.09994395665981695</v>
-      </c>
-      <c r="N7">
-        <v>0.04116071984556932</v>
-      </c>
-      <c r="O7">
-        <v>-0.04863316520331282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>24.247</v>
-      </c>
-      <c r="D8">
-        <v>-0.273</v>
-      </c>
-      <c r="E8">
-        <v>0.191</v>
-      </c>
-      <c r="F8">
-        <v>3.844</v>
-      </c>
-      <c r="G8">
-        <v>4.138</v>
-      </c>
-      <c r="H8">
-        <v>2.624</v>
-      </c>
-      <c r="I8">
-        <v>1.486</v>
-      </c>
-      <c r="J8">
-        <v>-0.4412200177672491</v>
-      </c>
-      <c r="K8">
-        <v>-0.4557299378146284</v>
-      </c>
-      <c r="L8">
-        <v>0.4320402724311519</v>
-      </c>
-      <c r="M8">
-        <v>0.5155463429079065</v>
-      </c>
-      <c r="N8">
-        <v>0.1575362748001183</v>
-      </c>
-      <c r="O8">
-        <v>-0.2081729345572995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>-5.015</v>
+      </c>
+      <c r="D15">
+        <v>-0.338</v>
+      </c>
+      <c r="E15">
+        <v>-0.167</v>
+      </c>
+      <c r="F15">
+        <v>0.223</v>
+      </c>
+      <c r="G15">
+        <v>-1.724</v>
+      </c>
+      <c r="H15">
+        <v>-3.937</v>
+      </c>
+      <c r="I15">
+        <v>0.02065019074473383</v>
+      </c>
+      <c r="J15">
+        <v>-0.1047437385967822</v>
+      </c>
+      <c r="K15">
+        <v>0.003151434732128069</v>
+      </c>
+      <c r="L15">
+        <v>0.005556477027699467</v>
+      </c>
+      <c r="M15">
+        <v>0.02123071819538897</v>
+      </c>
+      <c r="N15">
+        <v>0.05415491789683202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>-0.489</v>
-      </c>
-      <c r="E9">
-        <v>0.987</v>
-      </c>
-      <c r="F9">
-        <v>0.468</v>
-      </c>
-      <c r="G9">
-        <v>0.327</v>
-      </c>
-      <c r="H9">
-        <v>0.647</v>
-      </c>
-      <c r="I9">
-        <v>-0.075</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>-6.703</v>
+      </c>
+      <c r="D16">
+        <v>-5.051</v>
+      </c>
+      <c r="E16">
+        <v>-4.373</v>
+      </c>
+      <c r="F16">
+        <v>-4.183</v>
+      </c>
+      <c r="G16">
+        <v>-5.747</v>
+      </c>
+      <c r="H16">
+        <v>-4.988</v>
+      </c>
+      <c r="I16">
+        <v>0.06804767966670515</v>
+      </c>
+      <c r="J16">
+        <v>0.008679550977895995</v>
+      </c>
+      <c r="K16">
+        <v>-0.07551209350769585</v>
+      </c>
+      <c r="L16">
+        <v>-0.09096169424835084</v>
+      </c>
+      <c r="M16">
+        <v>0.070825135979632</v>
+      </c>
+      <c r="N16">
+        <v>0.01892142113181355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1">
-        <v>-47.071</v>
-      </c>
-      <c r="D10">
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17">
+        <v>-0.031</v>
+      </c>
+      <c r="D17">
+        <v>-2.503</v>
+      </c>
+      <c r="E17">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.434</v>
+      </c>
+      <c r="G17">
+        <v>-1.695</v>
+      </c>
+      <c r="H17">
+        <v>-2.692</v>
+      </c>
+      <c r="I17">
+        <v>0.1134328035696921</v>
+      </c>
+      <c r="J17">
+        <v>-0.05498233520965465</v>
+      </c>
+      <c r="K17">
+        <v>-0.03106194020981673</v>
+      </c>
+      <c r="L17">
+        <v>-0.02010652894972832</v>
+      </c>
+      <c r="M17">
+        <v>0.0104260077573819</v>
+      </c>
+      <c r="N17">
+        <v>-0.0177080069578746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>-2.841</v>
+      </c>
+      <c r="D18">
+        <v>-2.689</v>
+      </c>
+      <c r="E18">
+        <v>-1.357</v>
+      </c>
+      <c r="F18">
+        <v>-1.501</v>
+      </c>
+      <c r="G18">
+        <v>-1.446</v>
+      </c>
+      <c r="H18">
+        <v>-0.349</v>
+      </c>
+      <c r="I18">
+        <v>0.04427480916030536</v>
+      </c>
+      <c r="J18">
+        <v>-0.03596268023748936</v>
+      </c>
+      <c r="K18">
+        <v>-0.005937234944868406</v>
+      </c>
+      <c r="L18">
+        <v>0.01441899915182373</v>
+      </c>
+      <c r="M18">
+        <v>0.02086513994910945</v>
+      </c>
+      <c r="N18">
+        <v>-0.03765903307888033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>0.329</v>
+      </c>
+      <c r="D19">
+        <v>0.246</v>
+      </c>
+      <c r="E19">
+        <v>0.336</v>
+      </c>
+      <c r="F19">
+        <v>0.352</v>
+      </c>
+      <c r="G19">
+        <v>0.276</v>
+      </c>
+      <c r="H19">
+        <v>0.244</v>
+      </c>
+      <c r="I19">
+        <v>0.1254237288135593</v>
+      </c>
+      <c r="J19">
+        <v>-0.137046004842615</v>
+      </c>
+      <c r="K19">
+        <v>0.01016949152542368</v>
+      </c>
+      <c r="L19">
+        <v>0.0353510895883777</v>
+      </c>
+      <c r="M19">
+        <v>0.02179176755447939</v>
+      </c>
+      <c r="N19">
+        <v>-0.05569007263922518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>-0.975</v>
+      </c>
+      <c r="D20">
+        <v>-0.511</v>
+      </c>
+      <c r="E20">
+        <v>3.143</v>
+      </c>
+      <c r="F20">
+        <v>3.437</v>
+      </c>
+      <c r="G20">
+        <v>1.922</v>
+      </c>
+      <c r="H20">
+        <v>0.785</v>
+      </c>
+      <c r="I20">
+        <v>-0.2989006204419288</v>
+      </c>
+      <c r="J20">
+        <v>-0.3730271035158376</v>
+      </c>
+      <c r="K20">
+        <v>0.3561554370305867</v>
+      </c>
+      <c r="L20">
+        <v>0.4466093392837706</v>
+      </c>
+      <c r="M20">
+        <v>0.09426363339501476</v>
+      </c>
+      <c r="N20">
+        <v>-0.2251006857516054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21">
+        <v>0.002</v>
+      </c>
+      <c r="D21">
+        <v>0.004</v>
+      </c>
+      <c r="E21">
+        <v>0.491</v>
+      </c>
+      <c r="F21">
+        <v>0.513</v>
+      </c>
+      <c r="G21">
+        <v>0.448</v>
+      </c>
+      <c r="H21">
+        <v>0.335</v>
+      </c>
+      <c r="I21">
+        <v>-0.2192502928543538</v>
+      </c>
+      <c r="J21">
+        <v>-0.1144084342053885</v>
+      </c>
+      <c r="K21">
+        <v>0.06891839125341659</v>
+      </c>
+      <c r="L21">
+        <v>0.1356891839125342</v>
+      </c>
+      <c r="M21">
+        <v>0.1362748926200702</v>
+      </c>
+      <c r="N21">
+        <v>-0.007223740726278782</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22">
+        <v>1.074</v>
+      </c>
+      <c r="D22">
+        <v>3.621</v>
+      </c>
+      <c r="E22">
+        <v>2.942</v>
+      </c>
+      <c r="F22">
+        <v>2.907</v>
+      </c>
+      <c r="G22">
+        <v>3.028</v>
+      </c>
+      <c r="H22">
+        <v>2.857</v>
+      </c>
+      <c r="I22">
+        <v>0.02822422008188944</v>
+      </c>
+      <c r="J22">
+        <v>0.04264960876597351</v>
+      </c>
+      <c r="K22">
+        <v>-0.0338486645587143</v>
+      </c>
+      <c r="L22">
+        <v>-0.02624255052528822</v>
+      </c>
+      <c r="M22">
+        <v>0.009864634483964447</v>
+      </c>
+      <c r="N22">
+        <v>-0.02064724824782534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23">
         <v>-1.252</v>
       </c>
-      <c r="E10">
+      <c r="D23">
         <v>1.774</v>
       </c>
-      <c r="F10">
+      <c r="E23">
         <v>1.266</v>
       </c>
-      <c r="G10">
+      <c r="F23">
         <v>1.466</v>
       </c>
-      <c r="H10">
+      <c r="G23">
         <v>1.083</v>
       </c>
-      <c r="I10">
+      <c r="H23">
         <v>-1.888</v>
       </c>
-      <c r="J10">
+      <c r="I23">
         <v>0.02295471810285042</v>
       </c>
-      <c r="K10">
+      <c r="J23">
         <v>-0.1227003996432936</v>
       </c>
-      <c r="L10">
+      <c r="K23">
         <v>0.0351421871387522</v>
       </c>
-      <c r="M10">
+      <c r="L23">
         <v>0.04663606037586301</v>
       </c>
-      <c r="N10">
+      <c r="M23">
         <v>0.02979159097664909</v>
       </c>
-      <c r="O10">
+      <c r="N23">
         <v>-0.0118241569508206</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1">
-        <v>15.565</v>
-      </c>
-      <c r="D11">
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <v>-0.108</v>
+      </c>
+      <c r="D24">
+        <v>0.782</v>
+      </c>
+      <c r="E24">
+        <v>2.217</v>
+      </c>
+      <c r="F24">
+        <v>2.385</v>
+      </c>
+      <c r="G24">
+        <v>1.756</v>
+      </c>
+      <c r="H24">
+        <v>1.358</v>
+      </c>
+      <c r="I24">
+        <v>-0.4333363060733078</v>
+      </c>
+      <c r="J24">
+        <v>-0.3455810220280031</v>
+      </c>
+      <c r="K24">
+        <v>0.3152590742887722</v>
+      </c>
+      <c r="L24">
+        <v>0.3944528672077054</v>
+      </c>
+      <c r="M24">
+        <v>0.1424239721751538</v>
+      </c>
+      <c r="N24">
+        <v>-0.07321858557032007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>-1.098</v>
+      </c>
+      <c r="D25">
+        <v>-0.263</v>
+      </c>
+      <c r="E25">
+        <v>1.434</v>
+      </c>
+      <c r="F25">
+        <v>1.615</v>
+      </c>
+      <c r="G25">
+        <v>0.431</v>
+      </c>
+      <c r="H25">
+        <v>0.344</v>
+      </c>
+      <c r="I25">
+        <v>-0.02518414591371461</v>
+      </c>
+      <c r="J25">
+        <v>-0.1771308312872676</v>
+      </c>
+      <c r="K25">
+        <v>0.06825675201683606</v>
+      </c>
+      <c r="L25">
+        <v>0.1086636267976148</v>
+      </c>
+      <c r="M25">
+        <v>0.1217116801122413</v>
+      </c>
+      <c r="N25">
+        <v>-0.09631708172571041</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <v>-0.346</v>
+      </c>
+      <c r="D26">
+        <v>0.876</v>
+      </c>
+      <c r="E26">
+        <v>2.579</v>
+      </c>
+      <c r="F26">
+        <v>2.767</v>
+      </c>
+      <c r="G26">
+        <v>1.564</v>
+      </c>
+      <c r="H26">
+        <v>1.518</v>
+      </c>
+      <c r="I26">
+        <v>-0.2929891046897204</v>
+      </c>
+      <c r="J26">
+        <v>-0.1757460918995736</v>
+      </c>
+      <c r="K26">
+        <v>0.2015632401705355</v>
+      </c>
+      <c r="L26">
+        <v>0.2537896731406918</v>
+      </c>
+      <c r="M26">
+        <v>0.06726669824727635</v>
+      </c>
+      <c r="N26">
+        <v>-0.05388441496920882</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27">
+        <v>-0.524</v>
+      </c>
+      <c r="D27">
+        <v>1.237</v>
+      </c>
+      <c r="E27">
+        <v>3.765</v>
+      </c>
+      <c r="F27">
+        <v>3.945</v>
+      </c>
+      <c r="G27">
+        <v>2.181</v>
+      </c>
+      <c r="H27">
+        <v>2.153</v>
+      </c>
+      <c r="I27">
+        <v>-0.3169025674786043</v>
+      </c>
+      <c r="J27">
+        <v>-0.2267939433838051</v>
+      </c>
+      <c r="K27">
+        <v>0.2511520737327189</v>
+      </c>
+      <c r="L27">
+        <v>0.2908986175115209</v>
+      </c>
+      <c r="M27">
+        <v>0.02797893350888742</v>
+      </c>
+      <c r="N27">
+        <v>-0.02633311389071753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28">
         <v>1.006</v>
       </c>
-      <c r="E11">
+      <c r="D28">
         <v>1.825</v>
       </c>
-      <c r="F11">
+      <c r="E28">
         <v>3.209</v>
       </c>
-      <c r="G11">
+      <c r="F28">
         <v>3.218</v>
       </c>
-      <c r="H11">
+      <c r="G28">
         <v>3.34</v>
       </c>
-      <c r="I11">
+      <c r="H28">
         <v>2.304</v>
       </c>
-      <c r="J11">
+      <c r="I28">
         <v>-0.3228353728930963</v>
       </c>
-      <c r="K11">
+      <c r="J28">
         <v>-0.2097898868621565</v>
       </c>
-      <c r="L11">
+      <c r="K28">
         <v>0.200831216809051</v>
       </c>
-      <c r="M11">
+      <c r="L28">
         <v>0.2047102285846225</v>
       </c>
-      <c r="N11">
+      <c r="M28">
         <v>0.2011082890787348</v>
       </c>
-      <c r="O11">
+      <c r="N28">
         <v>-0.0740244747171553</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1">
-        <v>56.581</v>
-      </c>
-      <c r="D12">
-        <v>-0.234</v>
-      </c>
-      <c r="E12">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="F12">
-        <v>0.298</v>
-      </c>
-      <c r="G12">
-        <v>0.336</v>
-      </c>
-      <c r="H12">
-        <v>0.133</v>
-      </c>
-      <c r="I12">
-        <v>0.005</v>
-      </c>
-      <c r="J12">
-        <v>-0.1054421768707482</v>
-      </c>
-      <c r="K12">
-        <v>-0.4149659863945578</v>
-      </c>
-      <c r="L12">
-        <v>0.3299319727891158</v>
-      </c>
-      <c r="M12">
-        <v>0.4421768707482994</v>
-      </c>
-      <c r="N12">
-        <v>0.1122448979591838</v>
-      </c>
-      <c r="O12">
-        <v>-0.3639455782312925</v>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29">
+        <v>-0.254</v>
+      </c>
+      <c r="D29">
+        <v>-0.09</v>
+      </c>
+      <c r="E29">
+        <v>0.278</v>
+      </c>
+      <c r="F29">
+        <v>0.317</v>
+      </c>
+      <c r="G29">
+        <v>0.113</v>
+      </c>
+      <c r="H29">
+        <v>-0.014</v>
+      </c>
+      <c r="I29">
+        <v>-0.07692307692307687</v>
+      </c>
+      <c r="J29">
+        <v>-0.3670329670329671</v>
+      </c>
+      <c r="K29">
+        <v>0.289010989010989</v>
+      </c>
+      <c r="L29">
+        <v>0.3945054945054944</v>
+      </c>
+      <c r="M29">
+        <v>0.1043956043956044</v>
+      </c>
+      <c r="N29">
+        <v>-0.343956043956044</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Run</t>
   </si>
@@ -74,15 +74,6 @@
   </si>
   <si>
     <t>RESTOA_ERBE</t>
-  </si>
-  <si>
-    <t>Top model net flux</t>
-  </si>
-  <si>
-    <t>SRF net flux</t>
-  </si>
-  <si>
-    <t>TOA  net flux</t>
   </si>
 </sst>
 </file>
@@ -551,9 +542,7 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5">
         <v>-0.489</v>
       </c>
@@ -577,9 +566,7 @@
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6">
         <v>-0.489</v>
       </c>
@@ -603,9 +590,7 @@
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7">
         <v>0.537</v>
       </c>
@@ -647,9 +632,7 @@
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8">
         <v>1.47</v>
       </c>
